--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T21:05:49+00:00</t>
+    <t>2022-01-10T18:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T18:47:14+00:00</t>
+    <t>2022-01-10T20:19:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T20:19:56+00:00</t>
+    <t>2022-01-10T22:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T22:39:32+00:00</t>
+    <t>2022-01-10T23:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T23:17:23+00:00</t>
+    <t>2022-01-14T00:18:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T00:18:13+00:00</t>
+    <t>2022-01-16T20:26:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T20:26:17+00:00</t>
+    <t>2022-01-18T14:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T14:34:22+00:00</t>
+    <t>2022-01-19T20:52:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T20:52:52+00:00</t>
+    <t>2022-01-24T12:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T12:54:27+00:00</t>
+    <t>2022-01-24T13:03:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T13:03:50+00:00</t>
+    <t>2022-01-24T15:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T15:52:44+00:00</t>
+    <t>2022-01-24T18:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T18:58:51+00:00</t>
+    <t>2022-01-24T20:22:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCEventBrand.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T20:22:18+00:00</t>
+    <t>2022-01-25T14:32:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
